--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="23490" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,15 @@
     <t>prefab</t>
   </si>
   <si>
+    <t>multi_move_speed</t>
+  </si>
+  <si>
+    <t>angle_damp</t>
+  </si>
+  <si>
+    <t>level_id</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int#ref=id@Tbenemy.EnemyLevel</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -57,6 +69,15 @@
   </si>
   <si>
     <t>prefab名称</t>
+  </si>
+  <si>
+    <t>移动速度倍率（万分数）</t>
+  </si>
+  <si>
+    <t>转角阻尼（万分数）</t>
+  </si>
+  <si>
+    <t>等级组id（伤害等养成）</t>
   </si>
   <si>
     <t>小怪物</t>
@@ -1009,7 +1030,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1017,8 +1038,9 @@
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="60.375" style="2" customWidth="1"/>
     <col min="8" max="9" width="18.75" style="2" customWidth="1"/>
     <col min="10" max="10" width="16" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
@@ -1027,7 +1049,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,47 +1062,80 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:7">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -102,6 +102,34 @@
   </si>
   <si>
     <t>Bullet_Enemy_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enums.Enemy.Type</t>
+  </si>
+  <si>
+    <t>怪物类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RASH</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,17 +516,17 @@
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
     <col min="4" max="5" width="35.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="60.375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="18.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="23" style="2" customWidth="1"/>
-    <col min="14" max="14" width="38.125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="60.375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="18.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,10 +549,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,10 +578,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,11 +606,14 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
@@ -590,17 +627,21 @@
         <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
         <v>1001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>怪物名称</t>
-  </si>
-  <si>
-    <t>prefab名称</t>
   </si>
   <si>
     <t>移动速度倍率（万分数）</t>
@@ -130,6 +127,18 @@
       </rPr>
       <t>RASH</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>形象prefab名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用的小怪物，毫无特色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,29 +513,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="35.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="60.375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="18.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="23" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="26.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="35.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25" style="2" customWidth="1"/>
+    <col min="8" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="60.375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="18.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23" style="2" customWidth="1"/>
+    <col min="16" max="16" width="38.125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,26 +546,26 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -565,26 +575,26 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -594,48 +604,54 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
         <v>80</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>50</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2">
         <v>1001</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>24</v>

--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>小怪物</t>
-  </si>
-  <si>
-    <t>Enemy</t>
   </si>
   <si>
     <t>转角倍率（万分数）</t>
@@ -140,6 +137,25 @@
   <si>
     <t>无用的小怪物，毫无特色</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会掉武器的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWARDWEAPON</t>
   </si>
 </sst>
 </file>
@@ -513,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,16 +566,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -588,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -605,22 +621,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -634,13 +650,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
         <v>50</v>
@@ -649,9 +665,38 @@
         <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
         <v>1001</v>
       </c>
     </row>

--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>

--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -61,9 +61,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>int#ref=id@Tbenemy.EnemyLevel</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -156,6 +153,10 @@
   </si>
   <si>
     <t>REWARDWEAPON</t>
+  </si>
+  <si>
+    <t>int#ref=Tbenemy.EnemyLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -531,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,16 +567,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -604,42 +605,42 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -647,25 +648,25 @@
         <v>1001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2">
         <v>1001</v>
@@ -676,16 +677,16 @@
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
         <v>150</v>
@@ -694,10 +695,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>int#ref=Tbenemy.EnemyLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Enemy_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,7 +661,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2">
         <v>40</v>

--- a/_ConfigExcels/Datas/enemy.xlsx
+++ b/_ConfigExcels/Datas/enemy.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -81,18 +81,6 @@
   </si>
   <si>
     <t>multi_angle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹prefab名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab_bullet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Enemy_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -159,7 +147,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bullet_Enemy_1</t>
+    <t>bullet_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,18 +537,20 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="35.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" style="2" customWidth="1"/>
-    <col min="8" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="60.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.75" style="2" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" customWidth="1"/>
     <col min="14" max="14" width="20.625" style="2" customWidth="1"/>
@@ -571,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -580,7 +582,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -597,10 +599,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -609,10 +611,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -626,13 +628,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -641,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -655,13 +657,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>40</v>
@@ -670,7 +672,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2">
         <v>1001</v>
@@ -681,16 +683,16 @@
         <v>1002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>150</v>
@@ -699,7 +701,7 @@
         <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2">
         <v>1002</v>
